--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H2">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N2">
         <v>0.221628</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1877898615853334</v>
+        <v>0.2236311231146667</v>
       </c>
       <c r="R2">
-        <v>1.690108754268</v>
+        <v>2.012680108032</v>
       </c>
       <c r="S2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="T2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,13 +605,13 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H3">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I3">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J3">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N3">
         <v>0.221628</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1860619019453334</v>
+        <v>0.1860619019453333</v>
       </c>
       <c r="R3">
         <v>1.674557117508</v>
       </c>
       <c r="S3">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="T3">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H4">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N4">
         <v>0.221628</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2054400938773334</v>
+        <v>0.3128860377866666</v>
       </c>
       <c r="R4">
-        <v>1.848960844896</v>
+        <v>2.81597434008</v>
       </c>
       <c r="S4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="T4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H5">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N5">
         <v>0.221628</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.09143900936133334</v>
+        <v>0.1431293816773333</v>
       </c>
       <c r="R5">
-        <v>0.822951084252</v>
+        <v>1.288164435096</v>
       </c>
       <c r="S5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="T5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H6">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N6">
         <v>0.221628</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.267599114024</v>
+        <v>0.2119980171466667</v>
       </c>
       <c r="R6">
-        <v>2.408392026216</v>
+        <v>1.90798215432</v>
       </c>
       <c r="S6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="T6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
     </row>
   </sheetData>
